--- a/Burn-Down Sprint 1.xlsx
+++ b/Burn-Down Sprint 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Projectnaam</t>
   </si>
@@ -41,25 +41,43 @@
     <t xml:space="preserve">Ideal </t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>User story 1</t>
-  </si>
-  <si>
-    <t>Work item 1</t>
-  </si>
-  <si>
-    <t>21-07 Remaining Hours</t>
-  </si>
-  <si>
-    <t>22-07 Remaining Hours</t>
-  </si>
-  <si>
-    <t>19-07 - Remaining Hours</t>
-  </si>
-  <si>
-    <t>20-07 Remaining Hours</t>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>User story 4</t>
+  </si>
+  <si>
+    <t>Work item 4</t>
+  </si>
+  <si>
+    <t>User story 5</t>
+  </si>
+  <si>
+    <t>User story 6</t>
+  </si>
+  <si>
+    <t>User story 7</t>
+  </si>
+  <si>
+    <t>Work item 5</t>
+  </si>
+  <si>
+    <t>Work item 6</t>
+  </si>
+  <si>
+    <t>Work item 7</t>
+  </si>
+  <si>
+    <t>26-07 - Remaining Hours</t>
+  </si>
+  <si>
+    <t>27-07 Remaining Hours</t>
+  </si>
+  <si>
+    <t>28-07 Remaining Hours</t>
+  </si>
+  <si>
+    <t>29-07 Remaining Hours</t>
   </si>
 </sst>
 </file>
@@ -260,13 +278,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -305,13 +323,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -755,7 +773,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -777,16 +795,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="4"/>
@@ -812,13 +830,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -839,12 +857,24 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -860,12 +890,24 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -881,12 +923,24 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -928,13 +982,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>5.33</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>2.66</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -958,15 +1012,15 @@
       </c>
       <c r="D8" s="1">
         <f>SUM(D2:D6)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <f>SUM(E2:E6)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <f>SUM(F2:F6)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
         <f>SUM(G2:G6)</f>
